--- a/1.Manual Task 1&2/2.MonefyBugReport.xlsx
+++ b/1.Manual Task 1&2/2.MonefyBugReport.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmaa\OneDrive\Desktop\Software Testing Bootcamp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF32D00-849B-4DA7-823F-306D25265E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,9 +141,6 @@
     <t>#5</t>
   </si>
   <si>
-    <t>#6</t>
-  </si>
-  <si>
     <t xml:space="preserve">the claim your offer button in the premium offer screen, appears on top of reviews when clicking on new expenses &amp; income categories </t>
   </si>
   <si>
@@ -219,17 +210,20 @@
   </si>
   <si>
     <t>pop up message stating the purchase ID is copied</t>
+  </si>
+  <si>
+    <t>#6.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +236,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,7 +324,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555C85D0-F560-BF1F-B960-D8E1B07ED31D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{555C85D0-F560-BF1F-B960-D8E1B07ED31D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -380,7 +374,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3D96AF-EB9C-420D-AD69-70A3FBD6FF09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF3D96AF-EB9C-420D-AD69-70A3FBD6FF09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -430,7 +424,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C050AD-B4C2-D069-22A9-ACB9AAB752CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74C050AD-B4C2-D069-22A9-ACB9AAB752CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -480,7 +474,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E9B4AF-30C3-C1D1-E40C-ED7DF1771C51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4E9B4AF-30C3-C1D1-E40C-ED7DF1771C51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -530,7 +524,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9863CBE8-3CA5-4334-34BD-55A0A1F90CF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9863CBE8-3CA5-4334-34BD-55A0A1F90CF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -608,7 +602,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -643,7 +637,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -820,37 +814,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="26.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.8984375" style="1"/>
+    <col min="3" max="3" width="26.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.296875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.8984375" style="1"/>
+    <col min="14" max="14" width="11.69921875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -894,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="378" customHeight="1">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="378" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -932,7 +926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="295.2" customHeight="1">
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="295.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -940,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
@@ -970,10 +964,10 @@
         <v>31</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="334.8" customHeight="1">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="334.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -981,19 +975,19 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>22</v>
@@ -1008,10 +1002,10 @@
         <v>31</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="57.6">
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1019,28 +1013,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>31</v>
@@ -1049,10 +1043,10 @@
         <v>31</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" ht="330" customHeight="1">
+    <row r="6" spans="1:14" s="6" customFormat="1" ht="330" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1060,63 +1054,63 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="305.39999999999998" customHeight="1">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>31</v>
